--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.61576492999488</v>
+        <v>91.81145505222393</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.9338019768316</v>
+        <v>125.6204832379325</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.53731280574185</v>
+        <v>113.6314406271929</v>
       </c>
       <c r="AD2" t="n">
-        <v>79615.76492999488</v>
+        <v>91811.45505222393</v>
       </c>
       <c r="AE2" t="n">
-        <v>108933.8019768316</v>
+        <v>125620.4832379325</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.607911362562466e-06</v>
+        <v>8.525842438424176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.298611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>98537.31280574185</v>
+        <v>113631.4406271929</v>
       </c>
     </row>
     <row r="3">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.05331844525925</v>
+        <v>89.24900856748832</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.4277496492576</v>
+        <v>122.1144309103585</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.3658731915351</v>
+        <v>110.4600010129861</v>
       </c>
       <c r="AD3" t="n">
-        <v>77053.31844525925</v>
+        <v>89249.00856748832</v>
       </c>
       <c r="AE3" t="n">
-        <v>105427.7496492576</v>
+        <v>122114.4309103586</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.81084243659957e-06</v>
+        <v>8.90131805567615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.159722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>95365.87319153509</v>
+        <v>110460.0010129861</v>
       </c>
     </row>
   </sheetData>
@@ -1905,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.98544409300419</v>
+        <v>85.74924573427231</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2301486154401</v>
+        <v>117.3259010033155</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.56888530901371</v>
+        <v>106.1284816795258</v>
       </c>
       <c r="AD2" t="n">
-        <v>73985.44409300419</v>
+        <v>85749.24573427231</v>
       </c>
       <c r="AE2" t="n">
-        <v>101230.1486154401</v>
+        <v>117325.9010033155</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.895037559257372e-06</v>
+        <v>9.330697050832436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.211805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>91568.88530901371</v>
+        <v>106128.4816795258</v>
       </c>
     </row>
   </sheetData>
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.59015810565596</v>
+        <v>91.51704308803745</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.5845685381064</v>
+        <v>125.2176557999936</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.36667287414673</v>
+        <v>113.2670584745589</v>
       </c>
       <c r="AD2" t="n">
-        <v>70590.15810565597</v>
+        <v>91517.04308803745</v>
       </c>
       <c r="AE2" t="n">
-        <v>96584.5685381064</v>
+        <v>125217.6557999936</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.602987528668437e-06</v>
+        <v>9.803158820721115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.810763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>87366.67287414672</v>
+        <v>113267.0584745589</v>
       </c>
     </row>
   </sheetData>
@@ -2499,28 +2499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.77951299950507</v>
+        <v>92.55251289131326</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.84365225761894</v>
+        <v>126.6344312665385</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.60103000709533</v>
+        <v>114.548618879034</v>
       </c>
       <c r="AD2" t="n">
-        <v>70779.51299950507</v>
+        <v>92552.51289131325</v>
       </c>
       <c r="AE2" t="n">
-        <v>96843.65225761895</v>
+        <v>126634.4312665385</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.84158283771675e-06</v>
+        <v>9.83008704904743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.466435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>87601.03000709534</v>
+        <v>114548.618879034</v>
       </c>
     </row>
   </sheetData>
@@ -2796,28 +2796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.54886651794929</v>
+        <v>102.5565917659154</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.9470009687783</v>
+        <v>140.3224533315735</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.1674977184586</v>
+        <v>126.930275329446</v>
       </c>
       <c r="AD2" t="n">
-        <v>82548.8665179493</v>
+        <v>102556.5917659154</v>
       </c>
       <c r="AE2" t="n">
-        <v>112947.0009687783</v>
+        <v>140322.4533315735</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.236967523174817e-06</v>
+        <v>9.434899092491675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.299768518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>102167.4977184586</v>
+        <v>126930.275329446</v>
       </c>
     </row>
   </sheetData>
@@ -3093,28 +3093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.2513709141237</v>
+        <v>87.12869075026643</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.9622455408446</v>
+        <v>119.2133185310168</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.13567333487154</v>
+        <v>107.835766727391</v>
       </c>
       <c r="AD2" t="n">
-        <v>75251.37091412369</v>
+        <v>87128.69075026643</v>
       </c>
       <c r="AE2" t="n">
-        <v>102962.2455408447</v>
+        <v>119213.3185310168</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.837497728738104e-06</v>
+        <v>9.146564952543457e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.220486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>93135.67333487154</v>
+        <v>107835.766727391</v>
       </c>
     </row>
     <row r="3">
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.62698165693061</v>
+        <v>87.50430149307333</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.4761727299293</v>
+        <v>119.7272457201014</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.60055203433143</v>
+        <v>108.3006454268509</v>
       </c>
       <c r="AD3" t="n">
-        <v>75626.98165693061</v>
+        <v>87504.30149307333</v>
       </c>
       <c r="AE3" t="n">
-        <v>103476.1727299293</v>
+        <v>119727.2457201014</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.821291435635939e-06</v>
+        <v>9.115922682342831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.232060185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>93600.55203433143</v>
+        <v>108300.6454268509</v>
       </c>
     </row>
   </sheetData>
@@ -3496,28 +3496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.7478093864143</v>
+        <v>114.0612354862386</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.9556916119233</v>
+        <v>156.0636144187716</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.8890431493467</v>
+        <v>141.1691220953454</v>
       </c>
       <c r="AD2" t="n">
-        <v>84747.8093864143</v>
+        <v>114061.2354862386</v>
       </c>
       <c r="AE2" t="n">
-        <v>115955.6916119233</v>
+        <v>156063.6144187716</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.933444577806121e-06</v>
+        <v>9.017684244904247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>104889.0431493467</v>
+        <v>141169.1220953454</v>
       </c>
     </row>
   </sheetData>
@@ -3793,28 +3793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.08886586020776</v>
+        <v>83.48424603541565</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.63516660620287</v>
+        <v>114.226828490607</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.22156474065717</v>
+        <v>103.3251802978536</v>
       </c>
       <c r="AD2" t="n">
-        <v>72088.86586020776</v>
+        <v>83484.24603541565</v>
       </c>
       <c r="AE2" t="n">
-        <v>98635.16660620287</v>
+        <v>114226.828490607</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.913652539531261e-06</v>
+        <v>9.630691071126586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.295717592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>89221.56474065717</v>
+        <v>103325.1802978536</v>
       </c>
     </row>
   </sheetData>
@@ -4090,28 +4090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.42182247807666</v>
+        <v>85.06778925263212</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.4589766566659</v>
+        <v>116.3935021813977</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.87131291963803</v>
+        <v>105.2850696925416</v>
       </c>
       <c r="AD2" t="n">
-        <v>73421.82247807666</v>
+        <v>85067.78925263212</v>
       </c>
       <c r="AE2" t="n">
-        <v>100458.9766566659</v>
+        <v>116393.5021813977</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.897765838800106e-06</v>
+        <v>9.416949469442468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.24074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>90871.31291963803</v>
+        <v>105285.0696925416</v>
       </c>
     </row>
   </sheetData>
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.78516833695831</v>
+        <v>89.87811328487872</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.4290989580182</v>
+        <v>122.975199738833</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.27165512767053</v>
+        <v>111.2386192725679</v>
       </c>
       <c r="AD2" t="n">
-        <v>77785.1683369583</v>
+        <v>89878.11328487872</v>
       </c>
       <c r="AE2" t="n">
-        <v>106429.0989580183</v>
+        <v>122975.199738833</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.710284697333686e-06</v>
+        <v>8.774903132881229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.252314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>96271.65512767053</v>
+        <v>111238.6192725679</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.2432954468395</v>
+        <v>88.33624039475994</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.3194404471277</v>
+        <v>120.8655412279424</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.36333946413436</v>
+        <v>109.3303036090317</v>
       </c>
       <c r="AD3" t="n">
-        <v>76243.2954468395</v>
+        <v>88336.24039475994</v>
       </c>
       <c r="AE3" t="n">
-        <v>104319.4404471277</v>
+        <v>120865.5412279424</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.833948397536787e-06</v>
+        <v>9.005279226910141e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.168402777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>94363.33946413436</v>
+        <v>109330.3036090317</v>
       </c>
     </row>
   </sheetData>
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.14073452037233</v>
+        <v>93.21110929799794</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.33789147843811</v>
+        <v>127.5355519253869</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.04809973034878</v>
+        <v>115.363737846933</v>
       </c>
       <c r="AD2" t="n">
-        <v>71140.73452037234</v>
+        <v>93211.10929799793</v>
       </c>
       <c r="AE2" t="n">
-        <v>97337.8914784381</v>
+        <v>127535.5519253869</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.88092648918802e-06</v>
+        <v>9.783804237352864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.394097222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>88048.09973034878</v>
+        <v>115363.737846933</v>
       </c>
     </row>
   </sheetData>
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.34743449322372</v>
+        <v>91.63793250696753</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.25246338336673</v>
+        <v>125.3830620362384</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.06626336926277</v>
+        <v>113.4166785717656</v>
       </c>
       <c r="AD2" t="n">
-        <v>70347.43449322371</v>
+        <v>91637.93250696753</v>
       </c>
       <c r="AE2" t="n">
-        <v>96252.46338336673</v>
+        <v>125383.0620362384</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.717115740803543e-06</v>
+        <v>9.868501128353389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.660300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>87066.26336926277</v>
+        <v>113416.6785717656</v>
       </c>
     </row>
   </sheetData>
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.38592820493334</v>
+        <v>101.8314472647005</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.3558174636932</v>
+        <v>139.330278633894</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.7281745338583</v>
+        <v>126.0327923923869</v>
       </c>
       <c r="AD2" t="n">
-        <v>81385.92820493334</v>
+        <v>101831.4472647005</v>
       </c>
       <c r="AE2" t="n">
-        <v>111355.8174636932</v>
+        <v>139330.278633894</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.458571932392821e-06</v>
+        <v>9.69229232055382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.00462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>100728.1745338583</v>
+        <v>126032.7923923869</v>
       </c>
     </row>
   </sheetData>
@@ -8310,28 +8310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.15253436260097</v>
+        <v>127.6896663857223</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.6648718159472</v>
+        <v>174.7106348193735</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.7172068567129</v>
+        <v>158.0364970401772</v>
       </c>
       <c r="AD2" t="n">
-        <v>99152.53436260097</v>
+        <v>127689.6663857223</v>
       </c>
       <c r="AE2" t="n">
-        <v>135664.8718159472</v>
+        <v>174710.6348193735</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.469680618666583e-06</v>
+        <v>8.252728906311862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.523726851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>122717.2068567129</v>
+        <v>158036.4970401772</v>
       </c>
     </row>
   </sheetData>
@@ -8607,28 +8607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.82157646278699</v>
+        <v>84.34492227249146</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.63769357756169</v>
+        <v>115.4044436885293</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.12841194492526</v>
+        <v>104.3904055540799</v>
       </c>
       <c r="AD2" t="n">
-        <v>72821.57646278699</v>
+        <v>84344.92227249146</v>
       </c>
       <c r="AE2" t="n">
-        <v>99637.69357756169</v>
+        <v>115404.4436885293</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.903508401585108e-06</v>
+        <v>9.515641483058336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.269675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>90128.41194492526</v>
+        <v>104390.4055540799</v>
       </c>
     </row>
   </sheetData>
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.74431988502856</v>
+        <v>87.7312400977039</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.6367200702101</v>
+        <v>120.0377531307814</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.7457769617855</v>
+        <v>108.5815184460556</v>
       </c>
       <c r="AD2" t="n">
-        <v>75744.31988502856</v>
+        <v>87731.24009770391</v>
       </c>
       <c r="AE2" t="n">
-        <v>103636.7200702101</v>
+        <v>120037.7531307814</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.830279114845223e-06</v>
+        <v>9.063498196176554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.197337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>93745.77696178549</v>
+        <v>108581.5184460556</v>
       </c>
     </row>
     <row r="3">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.34578422003129</v>
+        <v>86.33270443270663</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7231818743227</v>
+        <v>118.1242149348941</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.01486416564531</v>
+        <v>106.8506056499154</v>
       </c>
       <c r="AD3" t="n">
-        <v>74345.78422003129</v>
+        <v>86332.70443270664</v>
       </c>
       <c r="AE3" t="n">
-        <v>101723.1818743227</v>
+        <v>118124.2149348941</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.947658564442914e-06</v>
+        <v>9.283748083274635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.122106481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>92014.86416564531</v>
+        <v>106850.6056499154</v>
       </c>
     </row>
   </sheetData>
@@ -9307,28 +9307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.7345303134036</v>
+        <v>156.2151987116545</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.1402637413695</v>
+        <v>213.7405266053631</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.3296841843552</v>
+        <v>193.3414307329215</v>
       </c>
       <c r="AD2" t="n">
-        <v>128734.5303134036</v>
+        <v>156215.1987116545</v>
       </c>
       <c r="AE2" t="n">
-        <v>176140.2637413695</v>
+        <v>213740.5266053631</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.741818105890279e-06</v>
+        <v>6.857079007539619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>159329.6841843552</v>
+        <v>193341.4307329215</v>
       </c>
     </row>
   </sheetData>
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.74787331899347</v>
+        <v>92.37576726767902</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.80036145089883</v>
+        <v>126.3926001068157</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.56187081420954</v>
+        <v>114.3298677457829</v>
       </c>
       <c r="AD2" t="n">
-        <v>70747.87331899347</v>
+        <v>92375.76726767902</v>
       </c>
       <c r="AE2" t="n">
-        <v>96800.36145089884</v>
+        <v>126392.6001068157</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.772049650313122e-06</v>
+        <v>9.827002906213164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.564814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>87561.87081420954</v>
+        <v>114329.8677457829</v>
       </c>
     </row>
   </sheetData>
@@ -9901,28 +9901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.66247911279297</v>
+        <v>94.01450156974757</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.05176544753454</v>
+        <v>128.6347886747597</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.69384256976331</v>
+        <v>116.3580649837345</v>
       </c>
       <c r="AD2" t="n">
-        <v>71662.47911279296</v>
+        <v>94014.50156974756</v>
       </c>
       <c r="AE2" t="n">
-        <v>98051.76544753453</v>
+        <v>128634.7886747597</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.892687165960608e-06</v>
+        <v>9.693314077124907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.347800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>88693.84256976331</v>
+        <v>116358.0649837345</v>
       </c>
     </row>
   </sheetData>
